--- a/07_Testing/signup.xlsx
+++ b/07_Testing/signup.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="109">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -44,9 +47,6 @@
   </si>
   <si>
     <t>All elements are displayed correctly on the signup page.</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>TC02</t>
@@ -346,18 +346,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -365,43 +368,62 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="4">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -428,22 +450,82 @@
         <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -455,158 +537,189 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="33.0"/>
-    <col customWidth="1" min="2" max="2" width="57.63"/>
-    <col customWidth="1" min="3" max="3" width="101.13"/>
-    <col customWidth="1" min="4" max="4" width="86.25"/>
-    <col customWidth="1" min="6" max="6" width="34.38"/>
-    <col customWidth="1" min="7" max="7" width="112.63"/>
-    <col customWidth="1" min="8" max="8" width="64.88"/>
+    <col min="1" max="1" style="3" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="63.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="141.29071428571427" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="102.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="3" width="112.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="3" width="64.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,485 +743,525 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>42</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>46</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>50</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>54</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>58</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>64</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>68</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>72</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>76</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>80</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>84</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="29">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/07_Testing/signup.xlsx
+++ b/07_Testing/signup.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="141">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -262,7 +262,7 @@
     <t>TC23</t>
   </si>
   <si>
-    <t>Check the ""Sign In"" button functionality for already signed-up users.</t>
+    <t>Check the ""Sign in"" button functionality for already signed-up users.</t>
   </si>
   <si>
     <t>Click the "Sign In" button and ensure it redirects to the sign-in page.</t>
@@ -341,6 +341,99 @@
   </si>
   <si>
     <t>System can handle high traffic without significant performance degradation.</t>
+  </si>
+  <si>
+    <t>TC30</t>
+  </si>
+  <si>
+    <t>Verify compatibility with major browsers.</t>
+  </si>
+  <si>
+    <t>Open the signup page in different browsers such as Google Chrome, Mozilla Firefox, Microsoft Edge, Safari, and Opera. Ensure all elements are displayed correctly, and functionality remains consistent across browsers.</t>
+  </si>
+  <si>
+    <t>All elements are displayed correctly and functionality remains consistent across major browsers.</t>
+  </si>
+  <si>
+    <t>TC31</t>
+  </si>
+  <si>
+    <t>Check responsiveness across browsers.</t>
+  </si>
+  <si>
+    <t>Test the signup page on different browsers across various devices (desktop, tablet, smartphone). Ensure the layout and functionality adapt well to different screen sizes and resolutions.</t>
+  </si>
+  <si>
+    <t>Layout and functionality adapt well to different screen sizes and resolutions across different browsers.</t>
+  </si>
+  <si>
+    <t>TC32</t>
+  </si>
+  <si>
+    <t>Load Testing.</t>
+  </si>
+  <si>
+    <t>Simulate a large number of concurrent users accessing the signup page simultaneously.</t>
+  </si>
+  <si>
+    <t>The system can handle a large number of concurrent users without crashing or significantly slowing down.</t>
+  </si>
+  <si>
+    <t>TC33</t>
+  </si>
+  <si>
+    <t>Scalability Testing.</t>
+  </si>
+  <si>
+    <t>Gradually increase the number of users accessing the signup page to test the system's ability to scale.</t>
+  </si>
+  <si>
+    <t>The system scales seamlessly with increased user load.</t>
+  </si>
+  <si>
+    <t>TC34</t>
+  </si>
+  <si>
+    <t>Response Time and Throughput.</t>
+  </si>
+  <si>
+    <t>Measure the time taken for the server to respond and the number of transactions processed per unit time under normal conditions.</t>
+  </si>
+  <si>
+    <t>Server response time is within acceptable limits</t>
+  </si>
+  <si>
+    <t>and the system processes transactions efficiently.</t>
+  </si>
+  <si>
+    <t>Stress Testing.</t>
+  </si>
+  <si>
+    <t>Apply a load beyond the system's capacity to verify its behavior under stress.</t>
+  </si>
+  <si>
+    <t>The system remains stable and responsive even under stress</t>
+  </si>
+  <si>
+    <t>with graceful degradation if necessary.</t>
+  </si>
+  <si>
+    <t>TC35</t>
+  </si>
+  <si>
+    <t>TC36</t>
+  </si>
+  <si>
+    <t>Resource Utilization and Efficiency.</t>
+  </si>
+  <si>
+    <t>Monitor system resources (CPU, memory, disk I/O) during peak usage to ensure efficient resource utilization.</t>
+  </si>
+  <si>
+    <t>System resources are optimally utilized</t>
+  </si>
+  <si>
+    <t>and performance remains stable even during peak usage.</t>
   </si>
 </sst>
 </file>
@@ -374,13 +467,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1020,18 +1114,40 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>11</v>
@@ -1044,16 +1160,16 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>11</v>
@@ -1066,16 +1182,16 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>11</v>
@@ -1088,25 +1204,186 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
